--- a/gynlog/bancoVeiculos.xlsx
+++ b/gynlog/bancoVeiculos.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Veiculos" r:id="rId3" sheetId="1"/>
+    <sheet name="Despesas" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +43,39 @@
   </si>
   <si>
     <t>Ativo</t>
+  </si>
+  <si>
+    <t>ID Veículo</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Falto bomba</t>
+  </si>
+  <si>
+    <t>22/05/2023</t>
+  </si>
+  <si>
+    <t>QWE3D12</t>
+  </si>
+  <si>
+    <t>Corvetezinho</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Quebrou</t>
+  </si>
+  <si>
+    <t>25/02/2025</t>
   </si>
 </sst>
 </file>
@@ -86,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,6 +166,99 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>2025.0</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>250.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/gynlog/bancoVeiculos.xlsx
+++ b/gynlog/bancoVeiculos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>cORVETE</t>
+  </si>
+  <si>
+    <t>QWE1R12</t>
+  </si>
+  <si>
+    <t>DASDA</t>
+  </si>
+  <si>
+    <t>QWE2E12</t>
+  </si>
+  <si>
+    <t>ADA</t>
   </si>
 </sst>
 </file>
@@ -132,7 +144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -215,6 +227,46 @@
         <v>2025.0</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>2025.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>9</v>
       </c>
     </row>
